--- a/Release_Notes_RK700X测试工具 V2.0.4.xlsx
+++ b/Release_Notes_RK700X测试工具 V2.0.4.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="71">
   <si>
     <t>Release Notes</t>
   </si>
@@ -319,6 +319,10 @@
   </si>
   <si>
     <t>2016.12.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">736b17  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3924,7 +3928,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4058,7 +4062,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="54" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>26</v>
